--- a/datadriven/src/test/java/resources/testdata.xlsx
+++ b/datadriven/src/test/java/resources/testdata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
